--- a/data/pre_notices/2023-03-23.xlsx
+++ b/data/pre_notices/2023-03-23.xlsx
@@ -464,41 +464,41 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>股票名称</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>股票代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>公告标题</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>公告日期</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>公告发布时间</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>公告链接</t>
         </is>
@@ -517,30 +517,123 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>山东路桥:第九届董事会第四十八次会议决议公告</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2023-03-24 00:00:00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2023-03-23 21:37:23:000</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://data.eastmoney.com/notices/detail/000498/AN202303231584517209.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>山东路桥</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000498</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>山东路桥:关于中标荣乌高速烟威改扩建项目并投资灵犀七号及济南弘嘉的关联交易公告</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023-03-24 00:00:00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2023-03-23 21:37:07:000</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://data.eastmoney.com/notices/detail/000498/AN202303231584517208.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>山东路桥</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000498</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>山东路桥:独立董事关于第九届董事会第四十八次会议相关事项的事前认可及独立意见</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023-03-24 00:00:00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2023-03-23 21:37:02:000</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://data.eastmoney.com/notices/detail/000498/AN202303231584517221.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>山东路桥</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000498</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>山东路桥:向不特定对象发行可转换公司债券发行提示性公告</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>2023-03-24 00:00:00</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-03-23 17:15:52:000</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://data.eastmoney.com/notices/detail/000498/AN202303231584507881.html</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -587,7 +680,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
